--- a/jun_excel_table2sql/src/main/resources/模板Excel.xlsx
+++ b/jun_excel_table2sql/src/main/resources/模板Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\github\jun_code_generator\doc2\GenerateSqlScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\github\jun_code_generator\jun_excel_table2sql\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904A0F2D-0792-4A3A-B9F0-D50FB63F8A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730A9B5F-B286-4E13-BA8B-BDD48CAE2257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="103">
   <si>
     <t>Entity Info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -843,12 +843,88 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List_Page_Show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeneratorType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ingle</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ujun</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsGenerator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rue</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -936,6 +1012,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1130,7 +1213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1240,13 +1323,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1261,16 +1344,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1578,20 +1664,21 @@
   <dimension ref="A1:AA197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="41.625" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="27" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="27" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1605,7 +1692,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -1627,20 +1714,20 @@
     </row>
     <row r="2" spans="1:27" ht="16.5">
       <c r="A2" s="5"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="48" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>3</v>
+      <c r="F2" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -1662,18 +1749,20 @@
     </row>
     <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="5"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="48" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="50" t="s">
+        <v>98</v>
+      </c>
       <c r="G3" s="9"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1695,18 +1784,20 @@
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="5"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="48" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="50" t="s">
+        <v>98</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1728,20 +1819,22 @@
     </row>
     <row r="5" spans="1:27" ht="16.5">
       <c r="A5" s="5"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="48" t="s">
-        <v>10</v>
+      <c r="D5" s="47"/>
+      <c r="E5" s="40" t="s">
+        <v>101</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="50" t="s">
+        <v>102</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1763,18 +1856,22 @@
     </row>
     <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="5"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>97</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1805,7 +1902,7 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1834,7 +1931,7 @@
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="4"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1863,7 +1960,7 @@
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="4"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1892,7 +1989,7 @@
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1950,7 +2047,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1971,31 +2068,33 @@
       <c r="AA12" s="4"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2020,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>21</v>
@@ -2038,7 +2137,9 @@
         <v>25</v>
       </c>
       <c r="H14" s="19"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2059,7 +2160,9 @@
       <c r="AA14" s="4"/>
     </row>
     <row r="15" spans="1:27" ht="16.5">
-      <c r="A15" s="16"/>
+      <c r="A15" s="16">
+        <v>2</v>
+      </c>
       <c r="B15" s="22" t="s">
         <v>26</v>
       </c>
@@ -2075,7 +2178,9 @@
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="4"/>
+      <c r="I15" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2096,7 +2201,9 @@
       <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="1:27" ht="16.5">
-      <c r="A16" s="16"/>
+      <c r="A16" s="16">
+        <v>3</v>
+      </c>
       <c r="B16" s="22" t="s">
         <v>29</v>
       </c>
@@ -2112,7 +2219,9 @@
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2133,7 +2242,9 @@
       <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="1:27" ht="16.5">
-      <c r="A17" s="16"/>
+      <c r="A17" s="16">
+        <v>4</v>
+      </c>
       <c r="B17" s="22" t="s">
         <v>32</v>
       </c>
@@ -2149,7 +2260,9 @@
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2171,7 +2284,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="16">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>34</v>
@@ -2190,7 +2303,9 @@
       <c r="H18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -2212,7 +2327,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="16">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>39</v>
@@ -2229,7 +2344,9 @@
       <c r="H19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -2251,13 +2368,13 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="16">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>44</v>
@@ -2270,7 +2387,9 @@
       <c r="H20" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2299,7 +2418,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="30"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="30"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -7435,6 +7554,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7493,8 +7613,8 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
@@ -7528,8 +7648,8 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
@@ -7561,8 +7681,8 @@
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
@@ -7594,10 +7714,10 @@
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
@@ -7629,10 +7749,10 @@
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="9"/>
@@ -13352,8 +13472,8 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
@@ -13387,8 +13507,8 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
@@ -13420,8 +13540,8 @@
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
@@ -13453,10 +13573,10 @@
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
@@ -13488,10 +13608,10 @@
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="9"/>
@@ -19265,8 +19385,8 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
@@ -19300,8 +19420,8 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
@@ -19333,8 +19453,8 @@
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
@@ -19366,10 +19486,10 @@
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
@@ -19401,10 +19521,10 @@
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="9"/>
@@ -25215,8 +25335,8 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
@@ -25250,8 +25370,8 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
@@ -25283,8 +25403,8 @@
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
@@ -25316,10 +25436,10 @@
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
@@ -25351,10 +25471,10 @@
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="9"/>
@@ -31231,8 +31351,8 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
@@ -31266,8 +31386,8 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
@@ -31299,8 +31419,8 @@
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
@@ -31332,10 +31452,10 @@
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
@@ -31367,10 +31487,10 @@
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="9"/>
@@ -37177,8 +37297,8 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
@@ -37212,8 +37332,8 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
@@ -37245,8 +37365,8 @@
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
@@ -37278,10 +37398,10 @@
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
@@ -37313,10 +37433,10 @@
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="9"/>
